--- a/public/data asli penggarap_pengurus_sawah.xlsx
+++ b/public/data asli penggarap_pengurus_sawah.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RDDU\PUBLIKASI-SHR-PND-SPD\DATA SEJARAH DAN WAKAF\Data asli YNWPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tugasakhir\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D8C0E-A2F1-4356-B272-9ADCEBD5945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C93E07-6D10-4E9D-808A-FDF5F4557CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" activeTab="3" xr2:uid="{BEFD2E53-BA92-4885-8B19-4F44445D8C83}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="2" xr2:uid="{BEFD2E53-BA92-4885-8B19-4F44445D8C83}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Penggarap" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,15 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rekap Sawah'!$A$6:$G$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1781,134 +1776,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,31 +1819,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1962,6 +1833,130 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2198,7 +2193,7 @@
       <sheetName val="Rekapan"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="27">
           <cell r="A27">
             <v>20</v>
@@ -2210,7 +2205,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="53">
           <cell r="A53">
             <v>41</v>
@@ -2222,14 +2217,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2" refreshError="1">
         <row r="61">
           <cell r="G61">
             <v>10143.5</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3" refreshError="1">
         <row r="55">
           <cell r="A55">
             <v>41</v>
@@ -2241,7 +2236,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4" refreshError="1">
         <row r="66">
           <cell r="A66">
             <v>54</v>
@@ -2253,7 +2248,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
+      <sheetData sheetId="5" refreshError="1">
         <row r="89">
           <cell r="A89">
             <v>73</v>
@@ -2265,14 +2260,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6" refreshError="1">
         <row r="71">
           <cell r="G71">
             <v>9583.2999999999993</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7">
+      <sheetData sheetId="7" refreshError="1">
         <row r="19">
           <cell r="A19">
             <v>12</v>
@@ -2286,6 +2281,34 @@
       </sheetData>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Tanah-Wakaf"/>
+      <sheetName val="Bangunan Wakaf"/>
+      <sheetName val="Barang-Benda-Wakaf"/>
+      <sheetName val="Benda Khusus Museum"/>
+      <sheetName val="Tanah Rumah Sewa"/>
+      <sheetName val="Data Silsilah"/>
+      <sheetName val="Data Penggarap"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2590,39 +2613,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A9AA23-3079-4BB4-B8E4-182EA00B61BC}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.3828125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="20.84375" customWidth="1"/>
-    <col min="6" max="6" width="16.53515625" customWidth="1"/>
-    <col min="7" max="7" width="11.69140625" customWidth="1"/>
-    <col min="8" max="8" width="15.53515625" customWidth="1"/>
-    <col min="9" max="9" width="11.69140625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.9" x14ac:dyDescent="0.45">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:13" ht="15.65" x14ac:dyDescent="0.3">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -2645,7 +2668,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -2668,7 +2691,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -2684,7 +2707,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" ht="16.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="10"/>
@@ -2699,23 +2722,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="111" t="s">
+    <row r="6" spans="1:13" ht="15.65" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="134" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="134" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="138" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="15" t="s">
@@ -2724,46 +2747,46 @@
       <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="117" t="s">
+      <c r="I6" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="111" t="s">
+      <c r="J6" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="111" t="s">
+      <c r="K6" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="119" t="s">
+      <c r="M6" s="142" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="112"/>
+    <row r="7" spans="1:13" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="135"/>
       <c r="B7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="112"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="120"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I7" s="141"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="143"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -2802,7 +2825,7 @@
       </c>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27">
         <v>2</v>
       </c>
@@ -2841,7 +2864,7 @@
       </c>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27">
         <v>3</v>
       </c>
@@ -2880,7 +2903,7 @@
       </c>
       <c r="M10" s="33"/>
     </row>
-    <row r="11" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <v>4</v>
       </c>
@@ -2919,7 +2942,7 @@
       </c>
       <c r="M11" s="33"/>
     </row>
-    <row r="12" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <v>5</v>
       </c>
@@ -2958,7 +2981,7 @@
       </c>
       <c r="M12" s="33"/>
     </row>
-    <row r="13" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <v>6</v>
       </c>
@@ -2997,7 +3020,7 @@
       </c>
       <c r="M13" s="33"/>
     </row>
-    <row r="14" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>7</v>
       </c>
@@ -3036,7 +3059,7 @@
       </c>
       <c r="M14" s="33"/>
     </row>
-    <row r="15" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <v>8</v>
       </c>
@@ -3075,7 +3098,7 @@
       </c>
       <c r="M15" s="33"/>
     </row>
-    <row r="16" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <v>9</v>
       </c>
@@ -3114,7 +3137,7 @@
       </c>
       <c r="M16" s="33"/>
     </row>
-    <row r="17" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <v>10</v>
       </c>
@@ -3153,7 +3176,7 @@
       </c>
       <c r="M17" s="33"/>
     </row>
-    <row r="18" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>11</v>
       </c>
@@ -3192,7 +3215,7 @@
       </c>
       <c r="M18" s="33"/>
     </row>
-    <row r="19" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <v>12</v>
       </c>
@@ -3231,7 +3254,7 @@
       </c>
       <c r="M19" s="33"/>
     </row>
-    <row r="20" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>13</v>
       </c>
@@ -3270,7 +3293,7 @@
       </c>
       <c r="M20" s="33"/>
     </row>
-    <row r="21" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>14</v>
       </c>
@@ -3311,7 +3334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <v>15</v>
       </c>
@@ -3350,7 +3373,7 @@
       </c>
       <c r="M22" s="33"/>
     </row>
-    <row r="23" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34">
         <v>16</v>
       </c>
@@ -3389,7 +3412,7 @@
       </c>
       <c r="M23" s="39"/>
     </row>
-    <row r="24" spans="1:13" ht="24.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="25.05" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27">
         <v>17</v>
       </c>
@@ -3428,7 +3451,7 @@
       </c>
       <c r="M24" s="40"/>
     </row>
-    <row r="25" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27">
         <v>18</v>
       </c>
@@ -3467,7 +3490,7 @@
       </c>
       <c r="M25" s="40"/>
     </row>
-    <row r="26" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27">
         <v>19</v>
       </c>
@@ -3506,7 +3529,7 @@
       </c>
       <c r="M26" s="40"/>
     </row>
-    <row r="27" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="41">
         <v>20</v>
       </c>
@@ -3545,7 +3568,7 @@
       </c>
       <c r="M27" s="42"/>
     </row>
-    <row r="28" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="43">
         <v>21</v>
       </c>
@@ -3584,7 +3607,7 @@
       </c>
       <c r="M28" s="48"/>
     </row>
-    <row r="29" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49">
         <v>22</v>
       </c>
@@ -3623,7 +3646,7 @@
       </c>
       <c r="M29" s="50"/>
     </row>
-    <row r="30" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="51"/>
       <c r="B30" s="52"/>
       <c r="C30" s="53" t="s">
@@ -3646,7 +3669,7 @@
       <c r="L30" s="56"/>
       <c r="M30" s="57"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:13" ht="15.65" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:M1"/>
@@ -3667,23 +3690,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF54F1F-574E-4E1F-8FD1-8F82F7479F7A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.53515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.3046875" customWidth="1"/>
-    <col min="5" max="5" width="39.53515625" customWidth="1"/>
-    <col min="6" max="6" width="36.84375" customWidth="1"/>
-    <col min="7" max="7" width="30.3046875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" customWidth="1"/>
+    <col min="6" max="6" width="36.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
       <c r="C1" s="82"/>
@@ -3692,7 +3715,7 @@
       <c r="F1" s="83"/>
       <c r="G1" s="83"/>
     </row>
-    <row r="2" spans="1:7" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.65" x14ac:dyDescent="0.3">
       <c r="A2" s="82"/>
       <c r="B2" s="83"/>
       <c r="C2" s="84" t="s">
@@ -3703,7 +3726,7 @@
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
       <c r="A3" s="82"/>
       <c r="B3" s="83"/>
       <c r="C3" s="84" t="s">
@@ -3714,7 +3737,7 @@
       <c r="F3" s="82"/>
       <c r="G3" s="85"/>
     </row>
-    <row r="4" spans="1:7" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="16.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="82"/>
       <c r="B4" s="83"/>
       <c r="C4" s="86" t="s">
@@ -3725,7 +3748,7 @@
       <c r="F4" s="83"/>
       <c r="G4" s="83"/>
     </row>
-    <row r="5" spans="1:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="89"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
@@ -3734,32 +3757,32 @@
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
     </row>
-    <row r="6" spans="1:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="121" t="s">
+    <row r="6" spans="1:9" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="127"/>
+      <c r="F6" s="152"/>
       <c r="G6" s="90" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="122"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="125"/>
+    <row r="7" spans="1:9" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="147"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="91" t="s">
         <v>156</v>
       </c>
@@ -3770,7 +3793,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="94" t="s">
         <v>99</v>
       </c>
@@ -3796,8 +3819,12 @@
         <f>E8*2</f>
         <v>9676</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I8" s="174">
+        <f>SUM(F8:F15)</f>
+        <v>94.343142857142865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="100" t="s">
         <v>136</v>
       </c>
@@ -3824,7 +3851,7 @@
         <v>17790</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="100" t="s">
         <v>162</v>
       </c>
@@ -3849,8 +3876,12 @@
         <f t="shared" si="1"/>
         <v>20287</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f>'[2]Tanah-Wakaf'!$L$16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="100" t="s">
         <v>142</v>
       </c>
@@ -3877,7 +3908,7 @@
         <v>12781.800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="100" t="s">
         <v>167</v>
       </c>
@@ -3904,7 +3935,7 @@
         <v>19096</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="16.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="100" t="s">
         <v>170</v>
       </c>
@@ -3931,7 +3962,7 @@
         <v>28585</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="100" t="s">
         <v>173</v>
       </c>
@@ -3957,7 +3988,7 @@
         <v>19166.599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="15.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="100" t="s">
         <v>176</v>
       </c>
@@ -3984,12 +4015,12 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="128" t="s">
+    <row r="16" spans="1:9" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="105">
         <f>SUM(D8:D15)</f>
         <v>346</v>
@@ -4007,7 +4038,7 @@
         <v>132080.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="109" t="s">
         <v>180</v>
       </c>
@@ -4019,13 +4050,16 @@
       <c r="G17" s="82"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:G17" xr:uid="{DBF54F1F-574E-4E1F-8FD1-8F82F7479F7A}">
+    <filterColumn colId="4" showButton="0"/>
+  </autoFilter>
   <mergeCells count="6">
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4036,96 +4070,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093CCB41-C5EC-48C2-AD94-4875B2A0D5C5}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.69140625" customWidth="1"/>
-    <col min="2" max="2" width="30.53515625" customWidth="1"/>
-    <col min="4" max="4" width="6.3828125" customWidth="1"/>
-    <col min="5" max="5" width="9.15234375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3046875" customWidth="1"/>
-    <col min="7" max="7" width="29.69140625" customWidth="1"/>
-    <col min="8" max="8" width="26.69140625" customWidth="1"/>
-    <col min="9" max="9" width="71.3828125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:9" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="A1" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A2" s="131" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="132" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="133" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.65" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="141" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="143" t="s">
+      <c r="I4" s="166" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="134"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58">
         <v>1</v>
       </c>
@@ -4154,7 +4188,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="58">
         <v>2</v>
       </c>
@@ -4175,7 +4209,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="22.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65">
         <v>3</v>
       </c>
@@ -4204,7 +4238,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="23.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="72">
         <v>2</v>
       </c>
@@ -4233,7 +4267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="65">
         <v>4</v>
       </c>
@@ -4262,7 +4296,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="30.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="65">
         <v>5</v>
       </c>
@@ -4291,7 +4325,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="65">
         <v>6</v>
       </c>
@@ -4312,7 +4346,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="65">
         <v>9</v>
       </c>
@@ -4341,7 +4375,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="65">
         <v>10</v>
       </c>
@@ -4391,309 +4425,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB605687-D4E2-405D-9B8C-57F555FB1951}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.53515625" customWidth="1"/>
-    <col min="5" max="5" width="11.921875" customWidth="1"/>
-    <col min="6" max="6" width="15.15234375" style="145" customWidth="1"/>
-    <col min="7" max="7" width="12" style="145" customWidth="1"/>
-    <col min="8" max="8" width="9.15234375" style="145" customWidth="1"/>
-    <col min="10" max="10" width="12.921875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="110" customWidth="1"/>
+    <col min="7" max="7" width="12" style="110" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="110" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="168" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="164" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="166"/>
-    </row>
-    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147">
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
+    </row>
+    <row r="2" spans="1:11" ht="30.05" x14ac:dyDescent="0.3">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112">
         <v>54.65</v>
       </c>
-      <c r="C2" s="147">
+      <c r="C2" s="112">
         <v>10.66</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="167" t="s">
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="168" t="s">
+      <c r="I2" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="168" t="s">
+      <c r="J2" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="169"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147">
+      <c r="K2" s="127"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112">
         <v>5.1266416510318944</v>
       </c>
-      <c r="D3" s="148">
+      <c r="D3" s="113">
         <v>94</v>
       </c>
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="148">
+      <c r="F3" s="113">
         <v>1000</v>
       </c>
-      <c r="G3" s="149"/>
-      <c r="H3" s="170">
+      <c r="G3" s="114"/>
+      <c r="H3" s="128">
         <v>300</v>
       </c>
-      <c r="I3" s="148">
+      <c r="I3" s="113">
         <v>100000</v>
       </c>
-      <c r="J3" s="151">
+      <c r="J3" s="116">
         <f>H3*I3</f>
         <v>30000000</v>
       </c>
-      <c r="K3" s="169"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148">
+      <c r="K3" s="127"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113">
         <v>481.90431519699808</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="113">
         <v>5500</v>
       </c>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="169"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="146"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148">
+      <c r="H4" s="129"/>
+      <c r="K4" s="127"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113">
         <v>5500000</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="169"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="129"/>
+      <c r="K5" s="127"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="148">
+      <c r="D6" s="113">
         <v>132080.4</v>
       </c>
-      <c r="E6" s="150" t="s">
+      <c r="E6" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="150">
+      <c r="F6" s="115">
         <v>2650473733.5834894</v>
       </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="174"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="146"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
-      <c r="J7" s="163"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="146"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="151" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114"/>
+      <c r="J7" s="125"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="116" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="151">
+      <c r="E8" s="116">
         <v>726440000</v>
       </c>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="145" t="s">
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="110" t="s">
         <v>199</v>
       </c>
       <c r="I8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="146"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="146"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="146"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="149"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="146"/>
-      <c r="B12" s="147" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="111"/>
+      <c r="B12" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="147">
+      <c r="C12" s="112">
         <v>12</v>
       </c>
-      <c r="D12" s="148">
+      <c r="D12" s="113">
         <v>3500000</v>
       </c>
-      <c r="E12" s="148">
+      <c r="E12" s="113">
         <v>42000000</v>
       </c>
-      <c r="F12" s="148"/>
-      <c r="G12" s="149"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="146"/>
-      <c r="B13" s="147" t="s">
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="111"/>
+      <c r="B13" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="147">
+      <c r="C13" s="112">
         <v>12</v>
       </c>
-      <c r="D13" s="148">
+      <c r="D13" s="113">
         <v>1500000</v>
       </c>
-      <c r="E13" s="148">
+      <c r="E13" s="113">
         <v>18000000</v>
       </c>
-      <c r="F13" s="148"/>
-      <c r="G13" s="149"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="146"/>
-      <c r="B14" s="147" t="s">
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="111"/>
+      <c r="B14" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="147">
+      <c r="C14" s="112">
         <v>8</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="113">
         <v>2500000</v>
       </c>
-      <c r="E14" s="148">
+      <c r="E14" s="113">
         <v>20000000</v>
       </c>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="146"/>
-      <c r="B15" s="147" t="s">
+      <c r="F14" s="113"/>
+      <c r="G14" s="114"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="147">
+      <c r="C15" s="112">
         <v>100</v>
       </c>
-      <c r="D15" s="148">
+      <c r="D15" s="113">
         <v>125000</v>
       </c>
-      <c r="E15" s="148">
+      <c r="E15" s="113">
         <v>12500000</v>
       </c>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="146"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="152" t="s">
+      <c r="F15" s="113"/>
+      <c r="G15" s="114"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="148">
+      <c r="E16" s="113">
         <v>92500000</v>
       </c>
-      <c r="F16" s="153">
+      <c r="F16" s="118">
         <v>1452880000</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="119" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="146"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="152" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="117" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152">
+      <c r="E17" s="117"/>
+      <c r="F17" s="117">
         <v>1110000000</v>
       </c>
-      <c r="G17" s="149"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="155"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158" t="s">
+      <c r="G17" s="114"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="120"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="158">
+      <c r="F18" s="123">
         <v>342880000</v>
       </c>
-      <c r="G18" s="159"/>
+      <c r="G18" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="2">
